--- a/OnlineWebApplication/artifact/script/OrangeHRM.xlsx
+++ b/OnlineWebApplication/artifact/script/OrangeHRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21228" windowHeight="8364" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
     <t>execution summary</t>
   </si>
   <si>
-    <t>the description of this test scenario goes here…</t>
+    <t>Automation of OrangeHRM .</t>
   </si>
   <si>
     <t>your name</t>
@@ -1668,9 +1668,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1735,8 +1735,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1766,110 +1870,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1892,25 +1892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1928,7 +1910,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,25 +2012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,55 +2030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,31 +2054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,25 +2116,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2155,6 +2142,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2166,6 +2162,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2187,36 +2213,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2234,126 +2234,126 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2847,7 +2847,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -4704,10 +4704,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.6666666666667" style="3" customWidth="1"/>
@@ -4755,13 +4755,13 @@
       <c r="O1" s="29"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
-      <c r="A2" s="14" t="s">
-        <v>501</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>501</v>
+      </c>
       <c r="F2" s="17"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
